--- a/Final_Data/vega_predictions.xlsx
+++ b/Final_Data/vega_predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ResearchWorkingDirectory\Environmental_PAH_Mutagenicity\Final_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A21A6A-6B30-4ADB-A0B5-4C5A4C33FECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7DC29D-BDC0-448B-A4FA-DAD73E4A9A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="1234">
   <si>
     <t>Mutagenicity (Ames test) CONSENSUS model - assessment</t>
   </si>
@@ -3458,6 +3458,270 @@
   </si>
   <si>
     <t>result_from_database</t>
+  </si>
+  <si>
+    <t>OCCCOC(C)COc1ccccc1</t>
+  </si>
+  <si>
+    <t>51730-94-0</t>
+  </si>
+  <si>
+    <t>O=C(O)c1ccccc1C</t>
+  </si>
+  <si>
+    <t>118-90-1</t>
+  </si>
+  <si>
+    <t>Oc1c(cccc1C)C</t>
+  </si>
+  <si>
+    <t>576-26-1</t>
+  </si>
+  <si>
+    <t>c2cc1cc(ccc1c(c2)C)C</t>
+  </si>
+  <si>
+    <t>575-43-9</t>
+  </si>
+  <si>
+    <t>O=C(OCCC(C)C)C=Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>7779-65-9</t>
+  </si>
+  <si>
+    <t>O=C(O)c1ccc(cc1)C</t>
+  </si>
+  <si>
+    <t>99-94-5</t>
+  </si>
+  <si>
+    <t>Oc2ccc(OC1OC(CO)C(O)C(O)C1(O))cc2</t>
+  </si>
+  <si>
+    <t>NON-Mutagenic (Consensus score: 0.4)</t>
+  </si>
+  <si>
+    <t>497-76-7</t>
+  </si>
+  <si>
+    <t>Oc1ccccc1C</t>
+  </si>
+  <si>
+    <t>95-48-7</t>
+  </si>
+  <si>
+    <t>c1ccc(cc1)C(C)C</t>
+  </si>
+  <si>
+    <t>98-82-8</t>
+  </si>
+  <si>
+    <t>OC(c1ccc(cc1)C)(C)C</t>
+  </si>
+  <si>
+    <t>1197-01-9</t>
+  </si>
+  <si>
+    <t>c1ccc2c(c1)ccc(c2C)C</t>
+  </si>
+  <si>
+    <t>28804-88-8</t>
+  </si>
+  <si>
+    <t>O=C(O)c1ccc(O)cc1(O)</t>
+  </si>
+  <si>
+    <t>89-86-1</t>
+  </si>
+  <si>
+    <t>O=C4c5c(O)cc(O)cc5(OC(c1ccc2OC(CO)C(Oc2(c1))c3ccc(O)c(OC)c3)C4(O))</t>
+  </si>
+  <si>
+    <t>NON-Mutagenic (Consensus score: 0.45)</t>
+  </si>
+  <si>
+    <t>22888-70-6</t>
+  </si>
+  <si>
+    <t>O=C(OCc1ccccc1)Cc2ccccc2</t>
+  </si>
+  <si>
+    <t>102-16-9</t>
+  </si>
+  <si>
+    <t>O=C(OCCOC)c1ccccc1(C(=O)OCCOC)</t>
+  </si>
+  <si>
+    <t>117-82-8</t>
+  </si>
+  <si>
+    <t>O=C(c1cc(oc1C)C)C</t>
+  </si>
+  <si>
+    <t>10599-70-9</t>
+  </si>
+  <si>
+    <t>Oc1cc(cc(c1)C)C</t>
+  </si>
+  <si>
+    <t>108-68-9</t>
+  </si>
+  <si>
+    <t>Oc1ccc(cc1(O))C</t>
+  </si>
+  <si>
+    <t>452-86-8</t>
+  </si>
+  <si>
+    <t>O=Cc1ccccc1(C=O)</t>
+  </si>
+  <si>
+    <t>643-79-8</t>
+  </si>
+  <si>
+    <t>O=C(OCCC)c1ccc(O)cc1</t>
+  </si>
+  <si>
+    <t>94-13-3</t>
+  </si>
+  <si>
+    <t>Oc1ccc(cc1)C=Cc2cc(O)cc(O)c2</t>
+  </si>
+  <si>
+    <t>NON-Mutagenic (Consensus score: 0.325)</t>
+  </si>
+  <si>
+    <t>501-36-0</t>
+  </si>
+  <si>
+    <t>O=C(O)CCC(c1ccc(O)cc1)(c2ccc(O)cc2)C</t>
+  </si>
+  <si>
+    <t>126-00-1</t>
+  </si>
+  <si>
+    <t>OCCOc1ccccc1</t>
+  </si>
+  <si>
+    <t>122-99-6</t>
+  </si>
+  <si>
+    <t>O=C(O)c1cccc(c1)C</t>
+  </si>
+  <si>
+    <t>99-04-7</t>
+  </si>
+  <si>
+    <t>O=C(OCCCC)c1ccc(O)cc1</t>
+  </si>
+  <si>
+    <t>94-26-8</t>
+  </si>
+  <si>
+    <t>Oc1ccc(c(c1)C)C</t>
+  </si>
+  <si>
+    <t>95-65-8</t>
+  </si>
+  <si>
+    <t>c1ccc2c(c1)cccc2C</t>
+  </si>
+  <si>
+    <t>1321-94-4</t>
+  </si>
+  <si>
+    <t>Oc1cc(ccc1C)C</t>
+  </si>
+  <si>
+    <t>95-87-4</t>
+  </si>
+  <si>
+    <t>Oc1ccc(cc1C)C</t>
+  </si>
+  <si>
+    <t>105-67-9</t>
+  </si>
+  <si>
+    <t>O=C(OC(C)C)Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>4861-85-2</t>
+  </si>
+  <si>
+    <t>O(c1cc(cc2OCOc12)CC=C)C</t>
+  </si>
+  <si>
+    <t>607-91-0</t>
+  </si>
+  <si>
+    <t>O=C(O)C=Cc1ccc(C=CC(=O)O)cc1</t>
+  </si>
+  <si>
+    <t>16323-43-6</t>
+  </si>
+  <si>
+    <t>OC(C)COc1ccccc1</t>
+  </si>
+  <si>
+    <t>770-35-4</t>
+  </si>
+  <si>
+    <t>O=C(OCCCCCC)c1ccccc1</t>
+  </si>
+  <si>
+    <t>6789-88-4</t>
+  </si>
+  <si>
+    <t>Oc1cccc(O)c1C</t>
+  </si>
+  <si>
+    <t>608-25-3</t>
+  </si>
+  <si>
+    <t>c1ccc2cc(ccc2(c1))C</t>
+  </si>
+  <si>
+    <t>91-57-6</t>
+  </si>
+  <si>
+    <t>O=C(OC(C(=O)c1ccccc1)c2ccccc2)C</t>
+  </si>
+  <si>
+    <t>NON-Mutagenic (Consensus score: 0.575)</t>
+  </si>
+  <si>
+    <t>574-06-1</t>
+  </si>
+  <si>
+    <t>C=Cc1cccc(c1)C</t>
+  </si>
+  <si>
+    <t>25013-15-4</t>
+  </si>
+  <si>
+    <t>c1ccc5c(c1)ccc3c5(cc2ccc(c4c2c3CC4)C)</t>
+  </si>
+  <si>
+    <t>56-49-5</t>
+  </si>
+  <si>
+    <t>O=c1cc(-c2ccccc2)oc2ccc3ccccc3c12</t>
+  </si>
+  <si>
+    <t>6051-87-2</t>
+  </si>
+  <si>
+    <t>O=c1c(-c2ccc(O)cc2)coc2cc(O)cc(O)c12</t>
+  </si>
+  <si>
+    <t>446-72-0</t>
+  </si>
+  <si>
+    <t>Cc1ccc2oc(=O)ccc2c1</t>
+  </si>
+  <si>
+    <t>92-48-8</t>
   </si>
 </sst>
 </file>
@@ -3859,16 +4123,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E558"/>
+  <dimension ref="A1:E600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="A602" sqref="A602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" customWidth="1"/>
   </cols>
@@ -13359,6 +13623,720 @@
         <v>1</v>
       </c>
     </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B559" t="s">
+        <v>567</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B560" t="s">
+        <v>566</v>
+      </c>
+      <c r="C560">
+        <v>0</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B561" t="s">
+        <v>559</v>
+      </c>
+      <c r="C561">
+        <v>0</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B562" t="s">
+        <v>566</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B563" t="s">
+        <v>566</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B564" t="s">
+        <v>566</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B566" t="s">
+        <v>566</v>
+      </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B567" t="s">
+        <v>566</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B568" t="s">
+        <v>581</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B569" t="s">
+        <v>566</v>
+      </c>
+      <c r="C569">
+        <v>0</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B570" t="s">
+        <v>566</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C571">
+        <v>0</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B572" t="s">
+        <v>566</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B573" t="s">
+        <v>565</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B574" t="s">
+        <v>579</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B575" t="s">
+        <v>566</v>
+      </c>
+      <c r="C575">
+        <v>0</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B576" t="s">
+        <v>566</v>
+      </c>
+      <c r="C576">
+        <v>0</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B577" t="s">
+        <v>560</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B578" t="s">
+        <v>566</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C579">
+        <v>0</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B580" t="s">
+        <v>562</v>
+      </c>
+      <c r="C580">
+        <v>0</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B581" t="s">
+        <v>566</v>
+      </c>
+      <c r="C581">
+        <v>0</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B582" t="s">
+        <v>566</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B583" t="s">
+        <v>562</v>
+      </c>
+      <c r="C583">
+        <v>0</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B584" t="s">
+        <v>566</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B585" t="s">
+        <v>566</v>
+      </c>
+      <c r="C585">
+        <v>0</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B586" t="s">
+        <v>566</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B587" t="s">
+        <v>559</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B588" t="s">
+        <v>566</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B589" t="s">
+        <v>566</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B590" t="s">
+        <v>566</v>
+      </c>
+      <c r="C590">
+        <v>0</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B592" t="s">
+        <v>566</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B593" t="s">
+        <v>566</v>
+      </c>
+      <c r="C593">
+        <v>0</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B594" t="s">
+        <v>563</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B596" t="s">
+        <v>578</v>
+      </c>
+      <c r="C596">
+        <v>0</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B597" t="s">
+        <v>565</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B598" t="s">
+        <v>575</v>
+      </c>
+      <c r="C598">
+        <v>0</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B599" t="s">
+        <v>559</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B600" t="s">
+        <v>566</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
